--- a/config_8.24/shoping_config.xlsx
+++ b/config_8.24/shoping_config.xlsx
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5543" uniqueCount="1893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5575" uniqueCount="1912">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7043,6 +7043,199 @@
   </si>
   <si>
     <t>清凉礼包</t>
+  </si>
+  <si>
+    <t>绝地反击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非冲金鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1010000,1100000,100}</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5100000,5400000,100}</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10200000,10800000,100}</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20400000,21600000,100}</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"101万金币"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"510万金币"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1020万金币"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2040万金币"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5000000</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>000000,10000000</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0000000,20000000</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0000000,50000000</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,1,0</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7279,7 +7472,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7569,6 +7762,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -13469,13 +13665,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO704"/>
+  <dimension ref="A1:AO708"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W624" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W693" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA645" sqref="AA645"/>
+      <selection pane="bottomRight" activeCell="W716" sqref="W716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -55705,7 +55901,7 @@
       <c r="G655" s="91" t="s">
         <v>1879</v>
       </c>
-      <c r="H655" s="97" t="s">
+      <c r="H655" s="98" t="s">
         <v>1889</v>
       </c>
       <c r="K655" s="91" t="s">
@@ -55773,7 +55969,7 @@
       <c r="G656" s="90" t="s">
         <v>1880</v>
       </c>
-      <c r="H656" s="98"/>
+      <c r="H656" s="99"/>
       <c r="K656" s="91" t="s">
         <v>1608</v>
       </c>
@@ -55839,7 +56035,7 @@
       <c r="G657" s="90" t="s">
         <v>1881</v>
       </c>
-      <c r="H657" s="98"/>
+      <c r="H657" s="99"/>
       <c r="K657" s="91" t="s">
         <v>1609</v>
       </c>
@@ -55905,7 +56101,7 @@
       <c r="G658" s="90" t="s">
         <v>1882</v>
       </c>
-      <c r="H658" s="98"/>
+      <c r="H658" s="99"/>
       <c r="K658" s="91" t="s">
         <v>1611</v>
       </c>
@@ -55971,7 +56167,7 @@
       <c r="G659" s="90" t="s">
         <v>1883</v>
       </c>
-      <c r="H659" s="98"/>
+      <c r="H659" s="99"/>
       <c r="K659" s="91" t="s">
         <v>1612</v>
       </c>
@@ -56037,7 +56233,7 @@
       <c r="G660" s="90" t="s">
         <v>1884</v>
       </c>
-      <c r="H660" s="98"/>
+      <c r="H660" s="99"/>
       <c r="K660" s="91" t="s">
         <v>1613</v>
       </c>
@@ -56103,7 +56299,7 @@
       <c r="G661" s="90" t="s">
         <v>1885</v>
       </c>
-      <c r="H661" s="98"/>
+      <c r="H661" s="99"/>
       <c r="K661" s="91" t="s">
         <v>1615</v>
       </c>
@@ -57660,7 +57856,7 @@
       <c r="G683" s="88" t="s">
         <v>1646</v>
       </c>
-      <c r="H683" s="97" t="s">
+      <c r="H683" s="98" t="s">
         <v>1877</v>
       </c>
       <c r="K683" s="88" t="s">
@@ -57728,7 +57924,7 @@
       <c r="G684" s="88" t="s">
         <v>1646</v>
       </c>
-      <c r="H684" s="97"/>
+      <c r="H684" s="98"/>
       <c r="K684" s="88" t="s">
         <v>1575</v>
       </c>
@@ -57794,7 +57990,7 @@
       <c r="G685" s="88" t="s">
         <v>1646</v>
       </c>
-      <c r="H685" s="97"/>
+      <c r="H685" s="98"/>
       <c r="K685" s="88" t="s">
         <v>1577</v>
       </c>
@@ -57860,7 +58056,7 @@
       <c r="G686" s="88" t="s">
         <v>1646</v>
       </c>
-      <c r="H686" s="97"/>
+      <c r="H686" s="98"/>
       <c r="K686" s="88" t="s">
         <v>1579</v>
       </c>
@@ -57926,7 +58122,7 @@
       <c r="G687" s="88" t="s">
         <v>1646</v>
       </c>
-      <c r="H687" s="97"/>
+      <c r="H687" s="98"/>
       <c r="K687" s="88" t="s">
         <v>1581</v>
       </c>
@@ -57992,7 +58188,7 @@
       <c r="G688" s="88" t="s">
         <v>1646</v>
       </c>
-      <c r="H688" s="97"/>
+      <c r="H688" s="98"/>
       <c r="K688" s="88" t="s">
         <v>1583</v>
       </c>
@@ -58058,7 +58254,7 @@
       <c r="G689" s="88" t="s">
         <v>1648</v>
       </c>
-      <c r="H689" s="97" t="s">
+      <c r="H689" s="98" t="s">
         <v>1878</v>
       </c>
       <c r="K689" s="88" t="s">
@@ -58126,7 +58322,7 @@
       <c r="G690" s="88" t="s">
         <v>1648</v>
       </c>
-      <c r="H690" s="98"/>
+      <c r="H690" s="99"/>
       <c r="K690" s="88" t="s">
         <v>1650</v>
       </c>
@@ -58192,7 +58388,7 @@
       <c r="G691" s="88" t="s">
         <v>1648</v>
       </c>
-      <c r="H691" s="98"/>
+      <c r="H691" s="99"/>
       <c r="K691" s="88" t="s">
         <v>1651</v>
       </c>
@@ -58258,7 +58454,7 @@
       <c r="G692" s="88" t="s">
         <v>1648</v>
       </c>
-      <c r="H692" s="98"/>
+      <c r="H692" s="99"/>
       <c r="K692" s="88" t="s">
         <v>1652</v>
       </c>
@@ -58324,7 +58520,7 @@
       <c r="G693" s="88" t="s">
         <v>1648</v>
       </c>
-      <c r="H693" s="98"/>
+      <c r="H693" s="99"/>
       <c r="K693" s="88" t="s">
         <v>1653</v>
       </c>
@@ -58390,7 +58586,7 @@
       <c r="G694" s="88" t="s">
         <v>1648</v>
       </c>
-      <c r="H694" s="98"/>
+      <c r="H694" s="99"/>
       <c r="K694" s="88" t="s">
         <v>1654</v>
       </c>
@@ -58687,7 +58883,7 @@
       <c r="G698" s="95" t="s">
         <v>1879</v>
       </c>
-      <c r="H698" s="97" t="s">
+      <c r="H698" s="98" t="s">
         <v>1890</v>
       </c>
       <c r="K698" s="95" t="s">
@@ -58755,7 +58951,7 @@
       <c r="G699" s="94" t="s">
         <v>1880</v>
       </c>
-      <c r="H699" s="98"/>
+      <c r="H699" s="99"/>
       <c r="K699" s="95" t="s">
         <v>1608</v>
       </c>
@@ -58821,7 +59017,7 @@
       <c r="G700" s="94" t="s">
         <v>1881</v>
       </c>
-      <c r="H700" s="98"/>
+      <c r="H700" s="99"/>
       <c r="K700" s="95" t="s">
         <v>1609</v>
       </c>
@@ -58887,7 +59083,7 @@
       <c r="G701" s="94" t="s">
         <v>1882</v>
       </c>
-      <c r="H701" s="98"/>
+      <c r="H701" s="99"/>
       <c r="K701" s="95" t="s">
         <v>1611</v>
       </c>
@@ -58953,7 +59149,7 @@
       <c r="G702" s="94" t="s">
         <v>1883</v>
       </c>
-      <c r="H702" s="98"/>
+      <c r="H702" s="99"/>
       <c r="K702" s="95" t="s">
         <v>1612</v>
       </c>
@@ -59019,7 +59215,7 @@
       <c r="G703" s="94" t="s">
         <v>1884</v>
       </c>
-      <c r="H703" s="98"/>
+      <c r="H703" s="99"/>
       <c r="K703" s="95" t="s">
         <v>1613</v>
       </c>
@@ -59085,7 +59281,7 @@
       <c r="G704" s="94" t="s">
         <v>1885</v>
       </c>
-      <c r="H704" s="98"/>
+      <c r="H704" s="99"/>
       <c r="K704" s="95" t="s">
         <v>1615</v>
       </c>
@@ -59110,8 +59306,8 @@
       <c r="S704" s="89" t="s">
         <v>1115</v>
       </c>
-      <c r="X704" s="95" t="s">
-        <v>478</v>
+      <c r="X704" s="97" t="s">
+        <v>1910</v>
       </c>
       <c r="Y704" s="95">
         <v>99999999</v>
@@ -59135,6 +59331,290 @@
         <v>1</v>
       </c>
       <c r="AN704" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:40">
+      <c r="A705" s="21">
+        <v>704</v>
+      </c>
+      <c r="B705" s="35">
+        <v>10621</v>
+      </c>
+      <c r="F705" s="35">
+        <v>1</v>
+      </c>
+      <c r="G705" s="35" t="s">
+        <v>1893</v>
+      </c>
+      <c r="J705" s="35" t="s">
+        <v>1894</v>
+      </c>
+      <c r="K705" s="84" t="s">
+        <v>1902</v>
+      </c>
+      <c r="M705" s="35">
+        <v>-31</v>
+      </c>
+      <c r="N705" s="35">
+        <v>0</v>
+      </c>
+      <c r="O705" s="35">
+        <v>0</v>
+      </c>
+      <c r="P705" s="84" t="s">
+        <v>1895</v>
+      </c>
+      <c r="Q705" s="35">
+        <v>1000</v>
+      </c>
+      <c r="X705" s="84" t="s">
+        <v>1911</v>
+      </c>
+      <c r="Y705" s="35">
+        <v>99999999</v>
+      </c>
+      <c r="Z705" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA705" s="35">
+        <v>2552233600</v>
+      </c>
+      <c r="AB705" s="35">
+        <v>14</v>
+      </c>
+      <c r="AC705" s="84" t="s">
+        <v>1897</v>
+      </c>
+      <c r="AD705" s="84" t="s">
+        <v>1898</v>
+      </c>
+      <c r="AE705" s="85" t="s">
+        <v>1906</v>
+      </c>
+      <c r="AI705" s="35">
+        <v>1</v>
+      </c>
+      <c r="AJ705" s="35">
+        <v>1</v>
+      </c>
+      <c r="AM705" s="35">
+        <v>1</v>
+      </c>
+      <c r="AN705" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:40">
+      <c r="A706" s="21">
+        <v>705</v>
+      </c>
+      <c r="B706" s="35">
+        <v>10622</v>
+      </c>
+      <c r="F706" s="35">
+        <v>1</v>
+      </c>
+      <c r="G706" s="35" t="s">
+        <v>1893</v>
+      </c>
+      <c r="J706" s="35" t="s">
+        <v>1894</v>
+      </c>
+      <c r="K706" s="84" t="s">
+        <v>1903</v>
+      </c>
+      <c r="M706" s="35">
+        <v>-31</v>
+      </c>
+      <c r="N706" s="35">
+        <v>0</v>
+      </c>
+      <c r="O706" s="35">
+        <v>0</v>
+      </c>
+      <c r="P706" s="84" t="s">
+        <v>1896</v>
+      </c>
+      <c r="Q706" s="35">
+        <v>5000</v>
+      </c>
+      <c r="X706" s="84" t="s">
+        <v>1911</v>
+      </c>
+      <c r="Y706" s="35">
+        <v>99999999</v>
+      </c>
+      <c r="Z706" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA706" s="35">
+        <v>2552233600</v>
+      </c>
+      <c r="AB706" s="35">
+        <v>14</v>
+      </c>
+      <c r="AC706" s="84" t="s">
+        <v>1897</v>
+      </c>
+      <c r="AD706" s="84" t="s">
+        <v>1899</v>
+      </c>
+      <c r="AE706" s="85" t="s">
+        <v>1907</v>
+      </c>
+      <c r="AI706" s="35">
+        <v>1</v>
+      </c>
+      <c r="AJ706" s="35">
+        <v>1</v>
+      </c>
+      <c r="AM706" s="35">
+        <v>1</v>
+      </c>
+      <c r="AN706" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:40">
+      <c r="A707" s="21">
+        <v>706</v>
+      </c>
+      <c r="B707" s="35">
+        <v>10623</v>
+      </c>
+      <c r="F707" s="35">
+        <v>1</v>
+      </c>
+      <c r="G707" s="35" t="s">
+        <v>1893</v>
+      </c>
+      <c r="J707" s="35" t="s">
+        <v>1894</v>
+      </c>
+      <c r="K707" s="84" t="s">
+        <v>1904</v>
+      </c>
+      <c r="M707" s="35">
+        <v>-31</v>
+      </c>
+      <c r="N707" s="35">
+        <v>0</v>
+      </c>
+      <c r="O707" s="35">
+        <v>0</v>
+      </c>
+      <c r="P707" s="84" t="s">
+        <v>1895</v>
+      </c>
+      <c r="Q707" s="35">
+        <v>9800</v>
+      </c>
+      <c r="X707" s="84" t="s">
+        <v>1911</v>
+      </c>
+      <c r="Y707" s="35">
+        <v>99999999</v>
+      </c>
+      <c r="Z707" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA707" s="35">
+        <v>2552233600</v>
+      </c>
+      <c r="AB707" s="35">
+        <v>14</v>
+      </c>
+      <c r="AC707" s="84" t="s">
+        <v>1897</v>
+      </c>
+      <c r="AD707" s="84" t="s">
+        <v>1900</v>
+      </c>
+      <c r="AE707" s="85" t="s">
+        <v>1908</v>
+      </c>
+      <c r="AI707" s="35">
+        <v>1</v>
+      </c>
+      <c r="AJ707" s="35">
+        <v>1</v>
+      </c>
+      <c r="AM707" s="35">
+        <v>1</v>
+      </c>
+      <c r="AN707" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:40">
+      <c r="A708" s="21">
+        <v>707</v>
+      </c>
+      <c r="B708" s="35">
+        <v>10624</v>
+      </c>
+      <c r="F708" s="35">
+        <v>1</v>
+      </c>
+      <c r="G708" s="35" t="s">
+        <v>1893</v>
+      </c>
+      <c r="J708" s="35" t="s">
+        <v>1894</v>
+      </c>
+      <c r="K708" s="84" t="s">
+        <v>1905</v>
+      </c>
+      <c r="M708" s="35">
+        <v>-31</v>
+      </c>
+      <c r="N708" s="35">
+        <v>0</v>
+      </c>
+      <c r="O708" s="35">
+        <v>0</v>
+      </c>
+      <c r="P708" s="84" t="s">
+        <v>1896</v>
+      </c>
+      <c r="Q708" s="35">
+        <v>19800</v>
+      </c>
+      <c r="X708" s="84" t="s">
+        <v>1911</v>
+      </c>
+      <c r="Y708" s="35">
+        <v>99999999</v>
+      </c>
+      <c r="Z708" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA708" s="35">
+        <v>2552233600</v>
+      </c>
+      <c r="AB708" s="35">
+        <v>14</v>
+      </c>
+      <c r="AC708" s="84" t="s">
+        <v>1897</v>
+      </c>
+      <c r="AD708" s="84" t="s">
+        <v>1901</v>
+      </c>
+      <c r="AE708" s="85" t="s">
+        <v>1909</v>
+      </c>
+      <c r="AI708" s="35">
+        <v>1</v>
+      </c>
+      <c r="AJ708" s="35">
+        <v>1</v>
+      </c>
+      <c r="AM708" s="35">
+        <v>1</v>
+      </c>
+      <c r="AN708" s="35">
         <v>1</v>
       </c>
     </row>

--- a/config_8.24/shoping_config.xlsx
+++ b/config_8.24/shoping_config.xlsx
@@ -7129,22 +7129,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"101万金币"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"510万金币"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1020万金币"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2040万金币"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1000000</t>
     </r>
@@ -7235,6 +7219,22 @@
       </rPr>
       <t>,1,0</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"101万金币",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"510万金币",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1020万金币",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2040万金币",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -13668,10 +13668,10 @@
   <dimension ref="A1:AO708"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W693" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="I687" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W716" sqref="W716"/>
+      <selection pane="bottomRight" activeCell="K713" sqref="K713"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -59307,7 +59307,7 @@
         <v>1115</v>
       </c>
       <c r="X704" s="97" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="Y704" s="95">
         <v>99999999</v>
@@ -59351,7 +59351,7 @@
         <v>1894</v>
       </c>
       <c r="K705" s="84" t="s">
-        <v>1902</v>
+        <v>1908</v>
       </c>
       <c r="M705" s="35">
         <v>-31</v>
@@ -59369,7 +59369,7 @@
         <v>1000</v>
       </c>
       <c r="X705" s="84" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="Y705" s="35">
         <v>99999999</v>
@@ -59390,7 +59390,7 @@
         <v>1898</v>
       </c>
       <c r="AE705" s="85" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="AI705" s="35">
         <v>1</v>
@@ -59422,7 +59422,7 @@
         <v>1894</v>
       </c>
       <c r="K706" s="84" t="s">
-        <v>1903</v>
+        <v>1909</v>
       </c>
       <c r="M706" s="35">
         <v>-31</v>
@@ -59440,7 +59440,7 @@
         <v>5000</v>
       </c>
       <c r="X706" s="84" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="Y706" s="35">
         <v>99999999</v>
@@ -59461,7 +59461,7 @@
         <v>1899</v>
       </c>
       <c r="AE706" s="85" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="AI706" s="35">
         <v>1</v>
@@ -59493,7 +59493,7 @@
         <v>1894</v>
       </c>
       <c r="K707" s="84" t="s">
-        <v>1904</v>
+        <v>1910</v>
       </c>
       <c r="M707" s="35">
         <v>-31</v>
@@ -59511,7 +59511,7 @@
         <v>9800</v>
       </c>
       <c r="X707" s="84" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="Y707" s="35">
         <v>99999999</v>
@@ -59532,7 +59532,7 @@
         <v>1900</v>
       </c>
       <c r="AE707" s="85" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="AI707" s="35">
         <v>1</v>
@@ -59564,7 +59564,7 @@
         <v>1894</v>
       </c>
       <c r="K708" s="84" t="s">
-        <v>1905</v>
+        <v>1911</v>
       </c>
       <c r="M708" s="35">
         <v>-31</v>
@@ -59582,7 +59582,7 @@
         <v>19800</v>
       </c>
       <c r="X708" s="84" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="Y708" s="35">
         <v>99999999</v>
@@ -59603,7 +59603,7 @@
         <v>1901</v>
       </c>
       <c r="AE708" s="85" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="AI708" s="35">
         <v>1</v>
